--- a/epm/input/data_capp/load/pDemandForecast.xlsx
+++ b/epm/input/data_capp/load/pDemandForecast.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/World Bank/Projects/EPM_APPLIED/EPM_CAPP/epm/input/data_capp/load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AFF22B-DC48-DD47-A4E1-F849C12FD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF4C77-70EA-1641-A1B9-4F643D99C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1820" windowWidth="25800" windowHeight="16440" activeTab="1" xr2:uid="{C2E2233B-F7F2-434F-AE42-307C2775D8C3}"/>
+    <workbookView xWindow="10520" yWindow="1380" windowWidth="25800" windowHeight="16440" activeTab="1" xr2:uid="{C2E2233B-F7F2-434F-AE42-307C2775D8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="pDemandForecast" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7853" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="43">
   <si>
     <t>zone</t>
   </si>
@@ -153,7 +166,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of ene_demandElectrical Energy Demand (GWh)</t>
+    <t>Sum of Peak Load Demand (MW)</t>
   </si>
 </sst>
 </file>
@@ -696,7 +709,91 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -16385,7 +16482,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{416D3396-C041-824F-B5AF-4A577129E5CB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:V15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:V16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
@@ -16430,15 +16527,15 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="2"/>
@@ -16451,7 +16548,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -16471,7 +16568,7 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
@@ -16481,6 +16578,9 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -16558,10 +16658,10 @@
     <pageField fld="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of ene_demandElectrical Energy Demand (GWh)" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Peak Load Demand (MW)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="33">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="11" selected="0">
@@ -16580,7 +16680,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="32">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="11" selected="0">
@@ -18502,17 +18602,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADB6FE6-D7D6-0D47-A0B4-36610526AE39}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="41" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="33.83203125" bestFit="1" customWidth="1"/>
@@ -18609,7 +18709,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -18687,67 +18787,67 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>7833</v>
+        <v>2298</v>
       </c>
       <c r="C5" s="3">
-        <v>8299</v>
+        <v>2405</v>
       </c>
       <c r="D5" s="3">
-        <v>8764.34</v>
+        <v>2520</v>
       </c>
       <c r="E5" s="3">
-        <v>9230</v>
+        <v>2642</v>
       </c>
       <c r="F5" s="3">
-        <v>9696</v>
+        <v>2774</v>
       </c>
       <c r="G5" s="3">
-        <v>10118.959999999999</v>
+        <v>2915</v>
       </c>
       <c r="H5" s="3">
-        <v>10542.13</v>
+        <v>3066</v>
       </c>
       <c r="I5" s="3">
-        <v>10965</v>
+        <v>3228</v>
       </c>
       <c r="J5" s="3">
-        <v>11388</v>
+        <v>3401</v>
       </c>
       <c r="K5" s="3">
-        <v>11811.65</v>
+        <v>3586</v>
       </c>
       <c r="L5" s="3">
-        <v>12262.73</v>
+        <v>3785</v>
       </c>
       <c r="M5" s="3">
-        <v>12714</v>
+        <v>3998</v>
       </c>
       <c r="N5" s="3">
-        <v>13165</v>
+        <v>4227</v>
       </c>
       <c r="O5" s="3">
-        <v>13616</v>
+        <v>4471</v>
       </c>
       <c r="P5" s="3">
-        <v>14067.03</v>
+        <v>4733</v>
       </c>
       <c r="Q5" s="3">
-        <v>14555</v>
+        <v>5014</v>
       </c>
       <c r="R5" s="3">
-        <v>15044</v>
+        <v>5314</v>
       </c>
       <c r="S5" s="3">
-        <v>15531.86</v>
+        <v>5637</v>
       </c>
       <c r="T5" s="3">
-        <v>16020</v>
+        <v>5982</v>
       </c>
       <c r="U5" s="3">
-        <v>16508.41</v>
+        <v>6351</v>
       </c>
       <c r="V5" s="3">
-        <v>242132.11000000002</v>
+        <v>78347</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -18755,67 +18855,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
-        <v>407</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3">
-        <v>431.4</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3">
-        <v>456</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3">
-        <v>481</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3">
-        <v>509.6</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3">
-        <v>538.20000000000005</v>
+        <v>139</v>
       </c>
       <c r="I6" s="3">
-        <v>567</v>
+        <v>152</v>
       </c>
       <c r="J6" s="3">
-        <v>595</v>
+        <v>167</v>
       </c>
       <c r="K6" s="3">
-        <v>624</v>
+        <v>184</v>
       </c>
       <c r="L6" s="3">
-        <v>647.53</v>
+        <v>201</v>
       </c>
       <c r="M6" s="3">
-        <v>675</v>
+        <v>221</v>
       </c>
       <c r="N6" s="3">
-        <v>702</v>
+        <v>243</v>
       </c>
       <c r="O6" s="3">
-        <v>728</v>
+        <v>266</v>
       </c>
       <c r="P6" s="3">
-        <v>755.48</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="3">
-        <v>782</v>
+        <v>321</v>
       </c>
       <c r="R6" s="3">
-        <v>809</v>
+        <v>352</v>
       </c>
       <c r="S6" s="3">
-        <v>836.45</v>
+        <v>387</v>
       </c>
       <c r="T6" s="3">
-        <v>863</v>
+        <v>424</v>
       </c>
       <c r="U6" s="3">
-        <v>890.42</v>
+        <v>466</v>
       </c>
       <c r="V6" s="3">
-        <v>12680.08</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -18823,67 +18923,67 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>9171</v>
+        <v>1291</v>
       </c>
       <c r="C7" s="3">
-        <v>9716</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="3">
-        <v>10261.76</v>
+        <v>1517</v>
       </c>
       <c r="E7" s="3">
-        <v>10807</v>
+        <v>1645</v>
       </c>
       <c r="F7" s="3">
-        <v>11352</v>
+        <v>1784</v>
       </c>
       <c r="G7" s="3">
-        <v>11847.83</v>
+        <v>1934</v>
       </c>
       <c r="H7" s="3">
-        <v>12343.3</v>
+        <v>2098</v>
       </c>
       <c r="I7" s="3">
-        <v>12839</v>
+        <v>2275</v>
       </c>
       <c r="J7" s="3">
-        <v>13334</v>
+        <v>2466</v>
       </c>
       <c r="K7" s="3">
-        <v>13829.72</v>
+        <v>2674</v>
       </c>
       <c r="L7" s="3">
-        <v>14357.87</v>
+        <v>2900</v>
       </c>
       <c r="M7" s="3">
-        <v>14886</v>
+        <v>3144</v>
       </c>
       <c r="N7" s="3">
-        <v>15414</v>
+        <v>3410</v>
       </c>
       <c r="O7" s="3">
-        <v>15942</v>
+        <v>3697</v>
       </c>
       <c r="P7" s="3">
-        <v>16470.439999999999</v>
+        <v>4009</v>
       </c>
       <c r="Q7" s="3">
-        <v>17042</v>
+        <v>4347</v>
       </c>
       <c r="R7" s="3">
-        <v>17614</v>
+        <v>4713</v>
       </c>
       <c r="S7" s="3">
-        <v>18185.54</v>
+        <v>5111</v>
       </c>
       <c r="T7" s="3">
-        <v>18757</v>
+        <v>5542</v>
       </c>
       <c r="U7" s="3">
-        <v>19328.95</v>
+        <v>6009</v>
       </c>
       <c r="V7" s="3">
-        <v>283499.40999999997</v>
+        <v>61965</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -18891,67 +18991,67 @@
         <v>36</v>
       </c>
       <c r="B8" s="3">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
-        <v>102.76</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3">
+        <v>38</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44</v>
+      </c>
+      <c r="M8" s="3">
+        <v>50</v>
+      </c>
+      <c r="N8" s="3">
+        <v>56</v>
+      </c>
+      <c r="O8" s="3">
+        <v>64</v>
+      </c>
+      <c r="P8" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>81</v>
+      </c>
+      <c r="R8" s="3">
+        <v>91</v>
+      </c>
+      <c r="S8" s="3">
+        <v>102</v>
+      </c>
+      <c r="T8" s="3">
         <v>114</v>
       </c>
-      <c r="G8" s="3">
-        <v>118.65</v>
-      </c>
-      <c r="H8" s="3">
-        <v>123.61</v>
-      </c>
-      <c r="I8" s="3">
-        <v>129</v>
-      </c>
-      <c r="J8" s="3">
-        <v>134</v>
-      </c>
-      <c r="K8" s="3">
-        <v>138.5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>143.78</v>
-      </c>
-      <c r="M8" s="3">
-        <v>149</v>
-      </c>
-      <c r="N8" s="3">
-        <v>154</v>
-      </c>
-      <c r="O8" s="3">
-        <v>160</v>
-      </c>
-      <c r="P8" s="3">
-        <v>164.94</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>171</v>
-      </c>
-      <c r="R8" s="3">
-        <v>176</v>
-      </c>
-      <c r="S8" s="3">
-        <v>182.12</v>
-      </c>
-      <c r="T8" s="3">
-        <v>188</v>
-      </c>
       <c r="U8" s="3">
-        <v>193.57</v>
+        <v>127</v>
       </c>
       <c r="V8" s="3">
-        <v>2839.93</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -18959,67 +19059,67 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>524</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3">
-        <v>293.61</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="G9" s="3">
-        <v>338.99</v>
+        <v>89</v>
       </c>
       <c r="H9" s="3">
-        <v>353.17</v>
+        <v>98</v>
       </c>
       <c r="I9" s="3">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="J9" s="3">
-        <v>382</v>
+        <v>119</v>
       </c>
       <c r="K9" s="3">
-        <v>395.7</v>
+        <v>132</v>
       </c>
       <c r="L9" s="3">
-        <v>410.81</v>
+        <v>146</v>
       </c>
       <c r="M9" s="3">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="N9" s="3">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="O9" s="3">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="P9" s="3">
-        <v>471.26</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="3">
-        <v>488</v>
+        <v>235</v>
       </c>
       <c r="R9" s="3">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="S9" s="3">
-        <v>520.33000000000004</v>
+        <v>280</v>
       </c>
       <c r="T9" s="3">
-        <v>537</v>
+        <v>306</v>
       </c>
       <c r="U9" s="3">
-        <v>553.04999999999995</v>
+        <v>333</v>
       </c>
       <c r="V9" s="3">
-        <v>8373.92</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -19027,135 +19127,135 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2112</v>
+        <v>448</v>
       </c>
       <c r="C10" s="3">
-        <v>2238</v>
+        <v>472</v>
       </c>
       <c r="D10" s="3">
-        <v>2363.58</v>
+        <v>496</v>
       </c>
       <c r="E10" s="3">
-        <v>2489</v>
+        <v>522</v>
       </c>
       <c r="F10" s="3">
-        <v>2615</v>
+        <v>549</v>
       </c>
       <c r="G10" s="3">
-        <v>2728.9</v>
+        <v>578</v>
       </c>
       <c r="H10" s="3">
-        <v>2843.02</v>
+        <v>608</v>
       </c>
       <c r="I10" s="3">
-        <v>2957</v>
+        <v>640</v>
       </c>
       <c r="J10" s="3">
-        <v>3071</v>
+        <v>674</v>
       </c>
       <c r="K10" s="3">
-        <v>3185.39</v>
+        <v>709</v>
       </c>
       <c r="L10" s="3">
-        <v>3307.03</v>
+        <v>746</v>
       </c>
       <c r="M10" s="3">
-        <v>3429</v>
+        <v>785</v>
       </c>
       <c r="N10" s="3">
-        <v>3550</v>
+        <v>826</v>
       </c>
       <c r="O10" s="3">
-        <v>3672</v>
+        <v>869</v>
       </c>
       <c r="P10" s="3">
-        <v>3793.62</v>
+        <v>914</v>
       </c>
       <c r="Q10" s="3">
-        <v>3925</v>
+        <v>962</v>
       </c>
       <c r="R10" s="3">
-        <v>4057</v>
+        <v>1012</v>
       </c>
       <c r="S10" s="3">
-        <v>4188.66</v>
+        <v>1065</v>
       </c>
       <c r="T10" s="3">
-        <v>4320</v>
+        <v>1121</v>
       </c>
       <c r="U10" s="3">
-        <v>4452.0200000000004</v>
+        <v>1180</v>
       </c>
       <c r="V10" s="3">
-        <v>65297.22</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9788</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10370</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10951.75</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11534</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12116</v>
-      </c>
-      <c r="G11" s="3">
-        <v>12644.46</v>
-      </c>
-      <c r="H11" s="3">
-        <v>13173.25</v>
-      </c>
-      <c r="I11" s="3">
-        <v>13702</v>
-      </c>
-      <c r="J11" s="3">
-        <v>14231</v>
-      </c>
-      <c r="K11" s="3">
-        <v>14759.62</v>
-      </c>
-      <c r="L11" s="3">
-        <v>15323.27</v>
-      </c>
-      <c r="M11" s="3">
-        <v>15887</v>
-      </c>
-      <c r="N11" s="3">
-        <v>16451</v>
-      </c>
-      <c r="O11" s="3">
-        <v>17014</v>
-      </c>
-      <c r="P11" s="3">
-        <v>17577.89</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>18188</v>
-      </c>
-      <c r="R11" s="3">
-        <v>18798</v>
-      </c>
-      <c r="S11" s="3">
-        <v>19408.32</v>
-      </c>
-      <c r="T11" s="3">
-        <v>20018</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20628.599999999999</v>
-      </c>
-      <c r="V11" s="3">
-        <v>302564.15999999997</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1808</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1962</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2130</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2312</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2509</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2723</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2955</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3208</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3481</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3778</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4055</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4336</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4615</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4843</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5073</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5242</v>
+      </c>
+      <c r="R11" s="4">
+        <v>5423</v>
+      </c>
+      <c r="S11" s="4">
+        <v>5605</v>
+      </c>
+      <c r="T11" s="4">
+        <v>5786</v>
+      </c>
+      <c r="U11" s="4">
+        <v>5968</v>
+      </c>
+      <c r="V11" s="4">
+        <v>77812</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -19163,67 +19263,67 @@
         <v>39</v>
       </c>
       <c r="B12" s="3">
-        <v>611</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3">
-        <v>648</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3">
-        <v>684.12</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3">
-        <v>720</v>
+        <v>202</v>
       </c>
       <c r="F12" s="3">
-        <v>757</v>
+        <v>248</v>
       </c>
       <c r="G12" s="3">
-        <v>789.86</v>
+        <v>306</v>
       </c>
       <c r="H12" s="3">
-        <v>822.89</v>
+        <v>377</v>
       </c>
       <c r="I12" s="3">
-        <v>856</v>
+        <v>465</v>
       </c>
       <c r="J12" s="3">
-        <v>889</v>
+        <v>573</v>
       </c>
       <c r="K12" s="3">
-        <v>921.98</v>
+        <v>706</v>
       </c>
       <c r="L12" s="3">
-        <v>957.19</v>
+        <v>871</v>
       </c>
       <c r="M12" s="3">
-        <v>992</v>
+        <v>1073</v>
       </c>
       <c r="N12" s="3">
-        <v>1028</v>
+        <v>1322</v>
       </c>
       <c r="O12" s="3">
-        <v>1063</v>
+        <v>1630</v>
       </c>
       <c r="P12" s="3">
-        <v>1098.03</v>
+        <v>2009</v>
       </c>
       <c r="Q12" s="3">
-        <v>1136</v>
+        <v>2475</v>
       </c>
       <c r="R12" s="3">
-        <v>1174</v>
+        <v>3051</v>
       </c>
       <c r="S12" s="3">
-        <v>1212.3699999999999</v>
+        <v>3760</v>
       </c>
       <c r="T12" s="3">
-        <v>1250</v>
+        <v>4634</v>
       </c>
       <c r="U12" s="3">
-        <v>1288.5999999999999</v>
+        <v>5710</v>
       </c>
       <c r="V12" s="3">
-        <v>18899.04</v>
+        <v>29817</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -19231,67 +19331,67 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>2952</v>
+        <v>506</v>
       </c>
       <c r="C13" s="3">
-        <v>3128</v>
+        <v>528</v>
       </c>
       <c r="D13" s="3">
-        <v>3303.14</v>
+        <v>552</v>
       </c>
       <c r="E13" s="3">
-        <v>3479</v>
+        <v>576</v>
       </c>
       <c r="F13" s="3">
-        <v>3654</v>
+        <v>601</v>
       </c>
       <c r="G13" s="3">
-        <v>3813.68</v>
+        <v>628</v>
       </c>
       <c r="H13" s="3">
-        <v>3973.17</v>
+        <v>655</v>
       </c>
       <c r="I13" s="3">
-        <v>4133</v>
+        <v>684</v>
       </c>
       <c r="J13" s="3">
-        <v>4292</v>
+        <v>714</v>
       </c>
       <c r="K13" s="3">
-        <v>4451.63</v>
+        <v>746</v>
       </c>
       <c r="L13" s="3">
-        <v>4621.63</v>
+        <v>779</v>
       </c>
       <c r="M13" s="3">
-        <v>4792</v>
+        <v>813</v>
       </c>
       <c r="N13" s="3">
-        <v>4962</v>
+        <v>849</v>
       </c>
       <c r="O13" s="3">
-        <v>5132</v>
+        <v>886</v>
       </c>
       <c r="P13" s="3">
-        <v>5301.64</v>
+        <v>925</v>
       </c>
       <c r="Q13" s="3">
-        <v>5486</v>
+        <v>966</v>
       </c>
       <c r="R13" s="3">
-        <v>5670</v>
+        <v>1008</v>
       </c>
       <c r="S13" s="3">
-        <v>5853.72</v>
+        <v>1052</v>
       </c>
       <c r="T13" s="3">
-        <v>6038</v>
+        <v>1099</v>
       </c>
       <c r="U13" s="3">
-        <v>6221.76</v>
+        <v>1147</v>
       </c>
       <c r="V13" s="3">
-        <v>91258.369999999981</v>
+        <v>15714</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -19299,135 +19399,203 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>978</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3">
-        <v>1075</v>
+        <v>213</v>
       </c>
       <c r="D14" s="3">
-        <v>1182.8</v>
+        <v>252</v>
       </c>
       <c r="E14" s="3">
-        <v>1301</v>
+        <v>298</v>
       </c>
       <c r="F14" s="3">
-        <v>1431</v>
+        <v>352</v>
       </c>
       <c r="G14" s="3">
-        <v>1574.3</v>
+        <v>416</v>
       </c>
       <c r="H14" s="3">
-        <v>1731.74</v>
+        <v>492</v>
       </c>
       <c r="I14" s="3">
-        <v>1905</v>
+        <v>582</v>
       </c>
       <c r="J14" s="3">
-        <v>2095</v>
+        <v>688</v>
       </c>
       <c r="K14" s="3">
-        <v>2304.94</v>
+        <v>813</v>
       </c>
       <c r="L14" s="3">
-        <v>2535.4299999999998</v>
+        <v>897</v>
       </c>
       <c r="M14" s="3">
-        <v>2789</v>
+        <v>989</v>
       </c>
       <c r="N14" s="3">
-        <v>3068</v>
+        <v>1090</v>
       </c>
       <c r="O14" s="3">
-        <v>3375</v>
+        <v>1201</v>
       </c>
       <c r="P14" s="3">
-        <v>3712.13</v>
+        <v>1322</v>
       </c>
       <c r="Q14" s="3">
-        <v>4083</v>
+        <v>1464</v>
       </c>
       <c r="R14" s="3">
-        <v>4492</v>
+        <v>1620</v>
       </c>
       <c r="S14" s="3">
-        <v>4940.84</v>
+        <v>1792</v>
       </c>
       <c r="T14" s="3">
-        <v>5435</v>
+        <v>1981</v>
       </c>
       <c r="U14" s="3">
-        <v>5978.42</v>
+        <v>2189</v>
       </c>
       <c r="V14" s="3">
-        <v>55987.599999999991</v>
+        <v>18831</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3">
+        <v>62</v>
+      </c>
+      <c r="I15" s="3">
+        <v>73</v>
+      </c>
+      <c r="J15" s="3">
+        <v>85</v>
+      </c>
+      <c r="K15" s="3">
+        <v>99</v>
+      </c>
+      <c r="L15" s="3">
+        <v>116</v>
+      </c>
+      <c r="M15" s="3">
+        <v>136</v>
+      </c>
+      <c r="N15" s="3">
+        <v>159</v>
+      </c>
+      <c r="O15" s="3">
+        <v>186</v>
+      </c>
+      <c r="P15" s="3">
+        <v>218</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>255</v>
+      </c>
+      <c r="R15" s="3">
+        <v>298</v>
+      </c>
+      <c r="S15" s="3">
+        <v>348</v>
+      </c>
+      <c r="T15" s="3">
+        <v>407</v>
+      </c>
+      <c r="U15" s="3">
+        <v>476</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4">
-        <v>34443</v>
-      </c>
-      <c r="C15" s="4">
-        <v>36256</v>
-      </c>
-      <c r="D15" s="4">
-        <v>38339.26</v>
-      </c>
-      <c r="E15" s="4">
-        <v>40433</v>
-      </c>
-      <c r="F15" s="4">
-        <v>42541</v>
-      </c>
-      <c r="G15" s="4">
-        <v>44485.23</v>
-      </c>
-      <c r="H15" s="4">
-        <v>46444.479999999989</v>
-      </c>
-      <c r="I15" s="4">
-        <v>48420</v>
-      </c>
-      <c r="J15" s="4">
-        <v>50411</v>
-      </c>
-      <c r="K15" s="4">
-        <v>52423.130000000005</v>
-      </c>
-      <c r="L15" s="4">
-        <v>54567.270000000004</v>
-      </c>
-      <c r="M15" s="4">
-        <v>56739</v>
-      </c>
-      <c r="N15" s="4">
-        <v>58935</v>
-      </c>
-      <c r="O15" s="4">
-        <v>61158</v>
-      </c>
-      <c r="P15" s="4">
-        <v>63412.459999999992</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>65856</v>
-      </c>
-      <c r="R15" s="4">
-        <v>68338</v>
-      </c>
-      <c r="S15" s="4">
-        <v>70860.210000000006</v>
-      </c>
-      <c r="T15" s="4">
-        <v>73426</v>
-      </c>
-      <c r="U15" s="4">
-        <v>76043.799999999988</v>
-      </c>
-      <c r="V15" s="4">
-        <v>1083531.8400000001</v>
+      <c r="B16" s="4">
+        <v>6814</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7305</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7845</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8433</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9078</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9791</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10576</v>
+      </c>
+      <c r="I16" s="4">
+        <v>11444</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12401</v>
+      </c>
+      <c r="K16" s="4">
+        <v>13465</v>
+      </c>
+      <c r="L16" s="4">
+        <v>14540</v>
+      </c>
+      <c r="M16" s="4">
+        <v>15706</v>
+      </c>
+      <c r="N16" s="4">
+        <v>16974</v>
+      </c>
+      <c r="O16" s="4">
+        <v>18308</v>
+      </c>
+      <c r="P16" s="4">
+        <v>19781</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>21362</v>
+      </c>
+      <c r="R16" s="4">
+        <v>23139</v>
+      </c>
+      <c r="S16" s="4">
+        <v>25139</v>
+      </c>
+      <c r="T16" s="4">
+        <v>27396</v>
+      </c>
+      <c r="U16" s="4">
+        <v>29956</v>
+      </c>
+      <c r="V16" s="4">
+        <v>309453</v>
       </c>
     </row>
   </sheetData>

--- a/epm/input/data_capp/load/pDemandForecast.xlsx
+++ b/epm/input/data_capp/load/pDemandForecast.xlsx
@@ -8,18 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/World Bank/Projects/EPM_APPLIED/EPM_CAPP/epm/input/data_capp/load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF4C77-70EA-1641-A1B9-4F643D99C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE6E50-090C-6A45-B0BB-8EB2FBDF5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="1380" windowWidth="25800" windowHeight="16440" activeTab="1" xr2:uid="{C2E2233B-F7F2-434F-AE42-307C2775D8C3}"/>
+    <workbookView xWindow="-720" yWindow="-21100" windowWidth="25800" windowHeight="16440" activeTab="4" xr2:uid="{C2E2233B-F7F2-434F-AE42-307C2775D8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="pDemandForecast" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="ENGIE Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Downscaling coefficient" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
+    <pivotCache cacheId="20" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8162" uniqueCount="50">
   <si>
     <t>zone</t>
   </si>
@@ -168,12 +175,37 @@
   <si>
     <t>Sum of Peak Load Demand (MW)</t>
   </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>DRC_East</t>
+  </si>
+  <si>
+    <t>DRC_South</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,6 +345,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -612,7 +658,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -655,17 +701,24 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -693,6 +746,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -709,103 +763,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -826,7 +784,57 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lucas Vivier" refreshedDate="45824.786508564815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1297" xr:uid="{2E9EF054-73FC-1848-9E06-BB89D9DC5472}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lucas Vivier" refreshedDate="45943.482783333333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="140" xr:uid="{7F25734A-F592-284A-88DA-5CA2678DC1F8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E141" sheet="ENGIE Report"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Scenario" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Base"/>
+        <s v="Low"/>
+        <s v="High"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Zone" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Angola"/>
+        <s v="CAR"/>
+        <s v="Cameroon"/>
+        <s v="Congo"/>
+        <s v="Gabon"/>
+        <s v="EquatorialGuinea"/>
+        <s v="DRC"/>
+        <s v="Chad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2025" maxValue="2050" count="6">
+        <n v="2025"/>
+        <n v="2030"/>
+        <n v="2035"/>
+        <n v="2040"/>
+        <n v="2045"/>
+        <n v="2050"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Energy" numFmtId="169">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="168.7" maxValue="66985.2"/>
+    </cacheField>
+    <cacheField name="Peak" numFmtId="169">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="59.1" maxValue="11269.8"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lucas Vivier" refreshedDate="45943.482783564818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1297" xr:uid="{2E9EF054-73FC-1848-9E06-BB89D9DC5472}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:K1298" sheet="Sheet1"/>
   </cacheSource>
@@ -912,6 +920,991 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="140">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17080.099999999999"/>
+    <n v="2873.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="21782.1"/>
+    <n v="3664.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27265.3"/>
+    <n v="4587.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="33614.5"/>
+    <n v="5655.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="41003.800000000003"/>
+    <n v="6898.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="49537.1"/>
+    <n v="8334.2000000000007"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="191.2"/>
+    <n v="67.900000000000006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="458.8"/>
+    <n v="138.69999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="775.2"/>
+    <n v="186.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1087.5999999999999"/>
+    <n v="240.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1347.7"/>
+    <n v="276.10000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1631"/>
+    <n v="310.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7978"/>
+    <n v="1294.4000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="9949.6"/>
+    <n v="1614.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12435.7"/>
+    <n v="2017.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="15533.8"/>
+    <n v="2520.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="19394.7"/>
+    <n v="3146.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="24206"/>
+    <n v="3927.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2785.5"/>
+    <n v="498.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3748.8"/>
+    <n v="670.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="4923.3"/>
+    <n v="880.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6351.9"/>
+    <n v="1136.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="8085.6"/>
+    <n v="1446.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="10207.9"/>
+    <n v="1826.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3788.3"/>
+    <n v="561.70000000000005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4844.1000000000004"/>
+    <n v="718.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="6127.8"/>
+    <n v="908.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="7463.7"/>
+    <n v="1106.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="9063.7000000000007"/>
+    <n v="1343.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="10735.9"/>
+    <n v="1591.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="920.6"/>
+    <n v="184.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1168.3"/>
+    <n v="234.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1443.2"/>
+    <n v="289.39999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1748.3"/>
+    <n v="350.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="2093"/>
+    <n v="419.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2484.8000000000002"/>
+    <n v="498.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15461.9"/>
+    <n v="2521.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="18790.5"/>
+    <n v="3064.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="22692.400000000001"/>
+    <n v="3700.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="26777.200000000001"/>
+    <n v="4366.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="31628.6"/>
+    <n v="5158"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="36208"/>
+    <n v="5904.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="335.5"/>
+    <n v="76.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="414.4"/>
+    <n v="91.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="486.5"/>
+    <n v="102.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="558.5"/>
+    <n v="113.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="633"/>
+    <n v="124.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="708.5"/>
+    <n v="134.80000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16529.900000000001"/>
+    <n v="2781"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17800.2"/>
+    <n v="2994.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="19629"/>
+    <n v="3302.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="22229.8"/>
+    <n v="3740"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="24967.4"/>
+    <n v="4200.6000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="27701.4"/>
+    <n v="4660.6000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="168.7"/>
+    <n v="59.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="203"/>
+    <n v="61.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="245.4"/>
+    <n v="59.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="297.5"/>
+    <n v="65.900000000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="362.7"/>
+    <n v="74.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7978"/>
+    <n v="1294.4000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="9568.6"/>
+    <n v="1552.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11392.4"/>
+    <n v="1848.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="13558.6"/>
+    <n v="2199.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="16131.3"/>
+    <n v="2617.3000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="19186.900000000001"/>
+    <n v="3113.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2671.1"/>
+    <n v="477.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3253.5"/>
+    <n v="582.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3928.7"/>
+    <n v="702.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5618.9"/>
+    <n v="10005.299999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="6670.8"/>
+    <n v="1193.5999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3578.8"/>
+    <n v="530.70000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4036.8"/>
+    <n v="598.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="4448.2"/>
+    <n v="659.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="4904"/>
+    <n v="727.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5400.4"/>
+    <n v="800.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="5952.3"/>
+    <n v="882.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="909.6"/>
+    <n v="182.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1093.7"/>
+    <n v="219.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1290.7"/>
+    <n v="258.89999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1502"/>
+    <n v="301.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1734.4"/>
+    <n v="347.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1992.2"/>
+    <n v="399.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15461.9"/>
+    <n v="2521.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="18558.3"/>
+    <n v="3026.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="22016.9"/>
+    <n v="3590.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="25463.200000000001"/>
+    <n v="4152.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="29397.8"/>
+    <n v="4794.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="32784.9"/>
+    <n v="5346.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="327.5"/>
+    <n v="74.900000000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="381"/>
+    <n v="83.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="429.4"/>
+    <n v="90.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="475"/>
+    <n v="96.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="520.70000000000005"/>
+    <n v="102.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="565.9"/>
+    <n v="107.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17501.8"/>
+    <n v="2944.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="23673.8"/>
+    <n v="3982.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="31328.6"/>
+    <n v="5270.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="40828"/>
+    <n v="6869"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="52571.4"/>
+    <n v="8844.7999999999993"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="66985.2"/>
+    <n v="11269.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="247"/>
+    <n v="87.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="756.6"/>
+    <n v="228.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1192.8"/>
+    <n v="287.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1713.8"/>
+    <n v="379.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2126.1999999999998"/>
+    <n v="435.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7978"/>
+    <n v="1294.4000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10341.700000000001"/>
+    <n v="1678"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13562"/>
+    <n v="2200.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17770.7"/>
+    <n v="2883.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="23271.4"/>
+    <n v="3775.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="30460.5"/>
+    <n v="4942.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2891.2"/>
+    <n v="517.29999999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4253.8999999999996"/>
+    <n v="761.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="5952.4"/>
+    <n v="1065"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10660.6"/>
+    <n v="1907.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="13939.1"/>
+    <n v="2494"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4019.8"/>
+    <n v="596"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="6415.3"/>
+    <n v="951.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="4019.8"/>
+    <n v="1295.4000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="10944.1"/>
+    <n v="1622.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13901.6"/>
+    <n v="2061.3000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="17049.2"/>
+    <n v="2528"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="937.6"/>
+    <n v="188"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1282.2"/>
+    <n v="257.10000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1675.9"/>
+    <n v="336.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="2124.1999999999998"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="2640.5"/>
+    <n v="529.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="3236.9"/>
+    <n v="649.20000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15950.7"/>
+    <n v="2601.1999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="20763.900000000001"/>
+    <n v="3386.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="26565.1"/>
+    <n v="4332.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="33014.800000000003"/>
+    <n v="5384"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="40761.5"/>
+    <n v="6647.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="48889.4"/>
+    <n v="7972.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="341.7"/>
+    <n v="78.099999999999994"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="435.8"/>
+    <n v="95.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="537.20000000000005"/>
+    <n v="113.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="647.4"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="765.1"/>
+    <n v="150.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="892.1"/>
+    <n v="169.7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1297">
   <r>
     <n v="10000021"/>
@@ -16481,7 +17474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{416D3396-C041-824F-B5AF-4A577129E5CB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{416D3396-C041-824F-B5AF-4A577129E5CB}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:V16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -16661,7 +17654,7 @@
     <dataField name="Sum of Peak Load Demand (MW)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="33">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="11" selected="0">
@@ -16680,7 +17673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="11" selected="0">
@@ -16700,6 +17693,121 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{214FB42C-D55E-0C40-B421-6EE7D0590DB3}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="169" showAll="0"/>
+    <pivotField dataField="1" numFmtId="169" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Peak" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -17031,7 +18139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740DB596-A3D7-5A4F-9BB7-C095E4B4240F}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -18604,7 +19712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADB6FE6-D7D6-0D47-A0B4-36610526AE39}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+    <sheetView zoomScale="57" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -19194,67 +20302,67 @@
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>1808</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>1962</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>2130</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>2312</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>2509</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>2723</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <v>2955</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>3208</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="7">
         <v>3481</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>3778</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="7">
         <v>4055</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="7">
         <v>4336</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="7">
         <v>4615</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="7">
         <v>4843</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="7">
         <v>5073</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="7">
         <v>5242</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="7">
         <v>5423</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="7">
         <v>5605</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="7">
         <v>5786</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="7">
         <v>5968</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="7">
         <v>77812</v>
       </c>
     </row>
@@ -19534,67 +20642,67 @@
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>6814</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>7305</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>7845</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <v>8433</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>9078</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>9791</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>10576</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>11444</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7">
         <v>12401</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="7">
         <v>13465</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="7">
         <v>14540</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="7">
         <v>15706</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="7">
         <v>16974</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="7">
         <v>18308</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="7">
         <v>19781</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="7">
         <v>21362</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="7">
         <v>23139</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="7">
         <v>25139</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="7">
         <v>27396</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="7">
         <v>29956</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="7">
         <v>309453</v>
       </c>
     </row>
@@ -19609,7 +20717,7 @@
   <dimension ref="B1:K1298"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61151,6 +62259,2781 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:K1" xr:uid="{6C16CFD2-C6D2-5C49-BF2B-AC7F275133F2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41483E04-3282-BE43-A6EF-47E8B87FA35C}">
+  <dimension ref="A1:E141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="5">
+        <v>17080.099999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2873.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="5">
+        <v>21782.1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3664.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2035</v>
+      </c>
+      <c r="D4" s="5">
+        <v>27265.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4587.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D5" s="5">
+        <v>33614.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5655.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41003.800000000003</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6898.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49537.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8334.2000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="5">
+        <v>191.2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D9" s="5">
+        <v>458.8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D10" s="5">
+        <v>775.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1087.5999999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1347.7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>276.10000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1631</v>
+      </c>
+      <c r="E13" s="5">
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7978</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1294.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9949.6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1614.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>2035</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12435.7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2017.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15533.8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2520.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D18" s="5">
+        <v>19394.7</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3146.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D19" s="5">
+        <v>24206</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3927.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2785.5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>498.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3748.8</v>
+      </c>
+      <c r="E21" s="5">
+        <v>670.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4923.3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>880.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6351.9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1136.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8085.6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1446.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10207.9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1826.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3788.3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>561.70000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>2030</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4844.1000000000004</v>
+      </c>
+      <c r="E27" s="5">
+        <v>718.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D28" s="5">
+        <v>6127.8</v>
+      </c>
+      <c r="E28" s="5">
+        <v>908.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7463.7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1106.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D30" s="5">
+        <v>9063.7000000000007</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1343.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10735.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1591.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D32" s="5">
+        <v>920.6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>184.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1168.3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>234.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1443.2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>289.39999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1748.3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2093</v>
+      </c>
+      <c r="E36" s="5">
+        <v>419.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2484.8000000000002</v>
+      </c>
+      <c r="E37" s="5">
+        <v>498.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D38" s="5">
+        <v>15461.9</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2521.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D39" s="5">
+        <v>18790.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3064.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D40" s="5">
+        <v>22692.400000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3700.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D41" s="5">
+        <v>26777.200000000001</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4366.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D42" s="5">
+        <v>31628.6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D43" s="5">
+        <v>36208</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5904.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D44" s="5">
+        <v>335.5</v>
+      </c>
+      <c r="E44" s="5">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D45" s="5">
+        <v>414.4</v>
+      </c>
+      <c r="E45" s="5">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D46" s="5">
+        <v>486.5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D47" s="5">
+        <v>558.5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D48" s="5">
+        <v>633</v>
+      </c>
+      <c r="E48" s="5">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D49" s="5">
+        <v>708.5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2025</v>
+      </c>
+      <c r="D50" s="5">
+        <v>16529.900000000001</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2030</v>
+      </c>
+      <c r="D51" s="5">
+        <v>17800.2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2994.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2035</v>
+      </c>
+      <c r="D52" s="5">
+        <v>19629</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3302.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D53" s="5">
+        <v>22229.8</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D54" s="5">
+        <v>24967.4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>4200.6000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D55" s="5">
+        <v>27701.4</v>
+      </c>
+      <c r="E55" s="5">
+        <v>4660.6000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D56" s="5">
+        <v>168.7</v>
+      </c>
+      <c r="E56" s="5">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D57" s="5">
+        <v>203</v>
+      </c>
+      <c r="E57" s="5">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D58" s="5">
+        <v>245.4</v>
+      </c>
+      <c r="E58" s="5">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D59" s="5">
+        <v>297.5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D60" s="5">
+        <v>362.7</v>
+      </c>
+      <c r="E60" s="5">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D61" s="5">
+        <v>7978</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1294.4000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9568.6</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1552.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2035</v>
+      </c>
+      <c r="D63" s="5">
+        <v>11392.4</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1848.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D64" s="5">
+        <v>13558.6</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2199.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D65" s="5">
+        <v>16131.3</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2617.3000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D66" s="5">
+        <v>19186.900000000001</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3113.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2671.1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>477.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3253.5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>582.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3928.7</v>
+      </c>
+      <c r="E69" s="5">
+        <v>702.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5618.9</v>
+      </c>
+      <c r="E70" s="5">
+        <v>10005.299999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D71" s="5">
+        <v>6670.8</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1193.5999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3578.8</v>
+      </c>
+      <c r="E72" s="5">
+        <v>530.70000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>2030</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4036.8</v>
+      </c>
+      <c r="E73" s="5">
+        <v>598.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4448.2</v>
+      </c>
+      <c r="E74" s="5">
+        <v>659.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4904</v>
+      </c>
+      <c r="E75" s="5">
+        <v>727.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5400.4</v>
+      </c>
+      <c r="E76" s="5">
+        <v>800.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5952.3</v>
+      </c>
+      <c r="E77" s="5">
+        <v>882.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D78" s="5">
+        <v>909.6</v>
+      </c>
+      <c r="E78" s="5">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1093.7</v>
+      </c>
+      <c r="E79" s="5">
+        <v>219.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1290.7</v>
+      </c>
+      <c r="E80" s="5">
+        <v>258.89999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1502</v>
+      </c>
+      <c r="E81" s="5">
+        <v>301.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1734.4</v>
+      </c>
+      <c r="E82" s="5">
+        <v>347.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1992.2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>399.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D84" s="5">
+        <v>15461.9</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2521.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D85" s="5">
+        <v>18558.3</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3026.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D86" s="5">
+        <v>22016.9</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3590.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D87" s="5">
+        <v>25463.200000000001</v>
+      </c>
+      <c r="E87" s="5">
+        <v>4152.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D88" s="5">
+        <v>29397.8</v>
+      </c>
+      <c r="E88" s="5">
+        <v>4794.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D89" s="5">
+        <v>32784.9</v>
+      </c>
+      <c r="E89" s="5">
+        <v>5346.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D90" s="5">
+        <v>327.5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D91" s="5">
+        <v>381</v>
+      </c>
+      <c r="E91" s="5">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D92" s="5">
+        <v>429.4</v>
+      </c>
+      <c r="E92" s="5">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D93" s="5">
+        <v>475</v>
+      </c>
+      <c r="E93" s="5">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D94" s="5">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="E94" s="5">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D95" s="5">
+        <v>565.9</v>
+      </c>
+      <c r="E95" s="5">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D96" s="5">
+        <v>17501.8</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2944.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2030</v>
+      </c>
+      <c r="D97" s="5">
+        <v>23673.8</v>
+      </c>
+      <c r="E97" s="5">
+        <v>3982.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2035</v>
+      </c>
+      <c r="D98" s="5">
+        <v>31328.6</v>
+      </c>
+      <c r="E98" s="5">
+        <v>5270.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D99" s="5">
+        <v>40828</v>
+      </c>
+      <c r="E99" s="5">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D100" s="5">
+        <v>52571.4</v>
+      </c>
+      <c r="E100" s="5">
+        <v>8844.7999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D101" s="5">
+        <v>66985.2</v>
+      </c>
+      <c r="E101" s="5">
+        <v>11269.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D102" s="5">
+        <v>247</v>
+      </c>
+      <c r="E102" s="5">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D103" s="5">
+        <v>756.6</v>
+      </c>
+      <c r="E103" s="5">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1192.8</v>
+      </c>
+      <c r="E104" s="5">
+        <v>287.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1713.8</v>
+      </c>
+      <c r="E105" s="5">
+        <v>379.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2126.1999999999998</v>
+      </c>
+      <c r="E106" s="5">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D107" s="5">
+        <v>7978</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1294.4000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D108" s="5">
+        <v>10341.700000000001</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2035</v>
+      </c>
+      <c r="D109" s="5">
+        <v>13562</v>
+      </c>
+      <c r="E109" s="5">
+        <v>2200.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D110" s="5">
+        <v>17770.7</v>
+      </c>
+      <c r="E110" s="5">
+        <v>2883.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D111" s="5">
+        <v>23271.4</v>
+      </c>
+      <c r="E111" s="5">
+        <v>3775.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D112" s="5">
+        <v>30460.5</v>
+      </c>
+      <c r="E112" s="5">
+        <v>4942.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D113" s="5">
+        <v>2891.2</v>
+      </c>
+      <c r="E113" s="5">
+        <v>517.29999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4253.8999999999996</v>
+      </c>
+      <c r="E114" s="5">
+        <v>761.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D115" s="5">
+        <v>5952.4</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D116" s="5">
+        <v>10660.6</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1907.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D117" s="5">
+        <v>13939.1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D118" s="5">
+        <v>4019.8</v>
+      </c>
+      <c r="E118" s="5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="6">
+        <v>2030</v>
+      </c>
+      <c r="D119" s="5">
+        <v>6415.3</v>
+      </c>
+      <c r="E119" s="5">
+        <v>951.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D120" s="5">
+        <v>4019.8</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1295.4000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D121" s="5">
+        <v>10944.1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1622.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D122" s="5">
+        <v>13901.6</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2061.3000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D123" s="5">
+        <v>17049.2</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D124" s="5">
+        <v>937.6</v>
+      </c>
+      <c r="E124" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1282.2</v>
+      </c>
+      <c r="E125" s="5">
+        <v>257.10000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1675.9</v>
+      </c>
+      <c r="E126" s="5">
+        <v>336.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2124.1999999999998</v>
+      </c>
+      <c r="E127" s="5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2640.5</v>
+      </c>
+      <c r="E128" s="5">
+        <v>529.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D129" s="5">
+        <v>3236.9</v>
+      </c>
+      <c r="E129" s="5">
+        <v>649.20000000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D130" s="5">
+        <v>15950.7</v>
+      </c>
+      <c r="E130" s="5">
+        <v>2601.1999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D131" s="5">
+        <v>20763.900000000001</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3386.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D132" s="5">
+        <v>26565.1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>4332.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D133" s="5">
+        <v>33014.800000000003</v>
+      </c>
+      <c r="E133" s="5">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D134" s="5">
+        <v>40761.5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>6647.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D135" s="5">
+        <v>48889.4</v>
+      </c>
+      <c r="E135" s="5">
+        <v>7972.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D136" s="5">
+        <v>341.7</v>
+      </c>
+      <c r="E136" s="5">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D137" s="5">
+        <v>435.8</v>
+      </c>
+      <c r="E137" s="5">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2035</v>
+      </c>
+      <c r="D138" s="5">
+        <v>537.20000000000005</v>
+      </c>
+      <c r="E138" s="5">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D139" s="5">
+        <v>647.4</v>
+      </c>
+      <c r="E139" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D140" s="5">
+        <v>765.1</v>
+      </c>
+      <c r="E140" s="5">
+        <v>150.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D141" s="5">
+        <v>892.1</v>
+      </c>
+      <c r="E141" s="5">
+        <v>169.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EED0C2-A8D8-FF4E-83E9-7B72007D3516}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>2030</v>
+      </c>
+      <c r="D4">
+        <v>2035</v>
+      </c>
+      <c r="E4">
+        <v>2040</v>
+      </c>
+      <c r="F4">
+        <v>2045</v>
+      </c>
+      <c r="G4">
+        <v>2050</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2873.6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3664.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4587.2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5655.4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6898.6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8334.2000000000007</v>
+      </c>
+      <c r="H5" s="7">
+        <v>32013.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1294.4000000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1614.3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2017.7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2520.4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3146.8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3927.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14520.999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C7" s="7">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>186.6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>240.8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>310.5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1220.5999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>76.7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>91.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>102.9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>113.9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>124.6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>498.4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>670.7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>880.9</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1136.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1446.7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1826.4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6459.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2521.5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3064.3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3700.7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4366.8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5158</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5904.8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>24716.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>184.6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>234.3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>289.39999999999998</v>
+      </c>
+      <c r="E11" s="7">
+        <v>350.6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>419.8</v>
+      </c>
+      <c r="G11" s="7">
+        <v>498.3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="C12" s="7">
+        <v>718.3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>908.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1106.7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1343.9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1591.9</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6231.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8078.7999999999993</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10196.399999999998</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12674</v>
+      </c>
+      <c r="E13" s="7">
+        <v>15491.1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>18814.500000000004</v>
+      </c>
+      <c r="G13" s="7">
+        <v>22528.3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>87783.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FEEAA5-1691-2543-9B12-C8CC472F09F8}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>